--- a/source_data/xlsx/培训系统.xlsx
+++ b/source_data/xlsx/培训系统.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/turkey/Projects/gtpx_web/source_data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +17,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>国家网账号：</t>
   </si>
@@ -220,14 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,151 +282,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,194 +301,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -627,251 +310,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,57 +357,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1257,27 +651,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.1640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1367,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:6">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1431,7 +825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +870,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1485,7 +879,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1494,7 +888,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1503,54 +897,54 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" ht="54" spans="1:1">
+    <row r="26" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1558,7 +952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -1574,12 +968,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1587,7 +981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>49</v>
       </c>
@@ -1595,51 +989,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>